--- a/fichiers_xls/gathertests/Nouveau dossier - Copie/test_cmd_ongletbyparticipant.xlsx
+++ b/fichiers_xls/gathertests/Nouveau dossier - Copie/test_cmd_ongletbyparticipant.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
